--- a/notebook/20200106_validate_b1h/media_reagents.xlsx
+++ b/notebook/20200106_validate_b1h/media_reagents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="6440" windowHeight="9390"/>
+    <workbookView activeTab="0" windowWidth="19200" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8" count="8">
   <si>
     <t>1x</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>100 μg/ml</t>
+  </si>
+  <si>
+    <t>chloramphenicol</t>
   </si>
 </sst>
 </file>
@@ -150,10 +153,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IV65536"/>
+  <dimension ref="A1:IV1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -162,7 +165,7 @@
     <col min="2" max="2" style="1" width="11.28503605769231" customWidth="1"/>
     <col min="3" max="4" style="2" width="9.142307692307693"/>
     <col min="5" max="5" style="3" width="13.999158653846155" customWidth="1"/>
-    <col min="6" max="256" style="0" width="9.142307692307693"/>
+    <col min="6" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="13.5">
@@ -746,13 +749,13 @@
       </c>
     </row>
     <row r="17" spans="1:256" ht="13.5">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>carbenicillin</t>
-        </is>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>30 μg/ml</t>
+        </is>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -762,20 +765,18 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>528/1E/−20°C</t>
+          <t>528/SC3</t>
         </is>
       </c>
     </row>
     <row r="18" spans="1:256" ht="13.5">
       <c r="A18" t="inlineStr">
         <is>
-          <t>chloramphenicol</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>30 μg/ml</t>
-        </is>
+          <t>agar</t>
+        </is>
+      </c>
+      <c r="B18" s="8">
+        <v>0.018000000000000002</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -783,31 +784,11 @@
       <c r="D18" t="s">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>528/SC3</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" spans="1:256" ht="13.5">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>agar</t>
-        </is>
-      </c>
-      <c r="B19" s="8">
-        <v>0.018000000000000002</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="E18">
         <v>527</v>
       </c>
     </row>
+    <row r="19" spans="1:256" ht="13.5"/>
     <row r="20" spans="1:256" ht="13.5"/>
     <row r="21" spans="1:256" ht="13.5"/>
     <row r="22" spans="1:256" ht="13.5"/>
@@ -815,7 +796,11 @@
     <row r="24" spans="1:256" ht="13.5"/>
     <row r="25" spans="1:256" ht="13.5"/>
     <row r="26" spans="1:256" ht="13.5"/>
-    <row r="27" spans="1:256" ht="13.5"/>
+    <row r="65527" spans="1:256">
+      <c r="B65527" s="0"/>
+      <c r="C65527" s="0"/>
+      <c r="D65527" s="0"/>
+    </row>
     <row r="65528" spans="1:256">
       <c r="B65528" s="0"/>
       <c r="C65528" s="0"/>
@@ -856,10 +841,11 @@
       <c r="C65535" s="0"/>
       <c r="D65535" s="0"/>
     </row>
-    <row r="65536" spans="1:256">
-      <c r="B65536" s="0"/>
-      <c r="C65536" s="0"/>
-      <c r="D65536" s="0"/>
+    <row r="1048576" spans="1:256">
+      <c r="B1048576" s="0"/>
+      <c r="C1048576" s="0"/>
+      <c r="D1048576" s="0"/>
+      <c r="E1048576" s="0"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -886,8 +872,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -914,8 +899,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
